--- a/GoT Info.xlsx
+++ b/GoT Info.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="start.txt" sheetId="1" r:id="rId1"/>
-    <sheet name="board.txt" sheetId="2" r:id="rId2"/>
-    <sheet name="adjacentsTMP.txt" sheetId="3" r:id="rId3"/>
+    <sheet name="init.txt" sheetId="4" r:id="rId2"/>
+    <sheet name="board.txt" sheetId="2" r:id="rId3"/>
+    <sheet name="adjacentsTMP.txt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
   <si>
     <t>Stark</t>
   </si>
@@ -417,13 +418,25 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Ships</t>
+  </si>
+  <si>
+    <t>Knights</t>
+  </si>
+  <si>
+    <t>Footmen</t>
+  </si>
+  <si>
+    <t>poop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -462,6 +475,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +501,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -514,13 +535,95 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -537,6 +640,46 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -553,6 +696,46 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -885,7 +1068,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1115,10 +1298,241 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1629,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1935,7 +2349,7 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -2009,11 +2423,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
